--- a/distributed/distributed_shots_far.xlsx
+++ b/distributed/distributed_shots_far.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,398 +455,1586 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2780</v>
+        <v>2740</v>
       </c>
       <c r="D2" t="n">
-        <v>358</v>
+        <v>238</v>
       </c>
       <c r="E2" t="n">
-        <v>617</v>
+        <v>881</v>
       </c>
       <c r="F2" t="n">
-        <v>341</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1312</v>
+        <v>2369</v>
       </c>
       <c r="D3" t="n">
-        <v>1112</v>
+        <v>672</v>
       </c>
       <c r="E3" t="n">
-        <v>845</v>
+        <v>446</v>
       </c>
       <c r="F3" t="n">
-        <v>827</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2622</v>
+        <v>3149</v>
       </c>
       <c r="D4" t="n">
-        <v>319</v>
+        <v>226</v>
       </c>
       <c r="E4" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F4" t="n">
-        <v>255</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2479</v>
+        <v>2649</v>
       </c>
       <c r="D5" t="n">
-        <v>595</v>
+        <v>432</v>
       </c>
       <c r="E5" t="n">
-        <v>509</v>
+        <v>556</v>
       </c>
       <c r="F5" t="n">
-        <v>513</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2821</v>
+        <v>2709</v>
       </c>
       <c r="D6" t="n">
-        <v>350</v>
+        <v>254</v>
       </c>
       <c r="E6" t="n">
-        <v>606</v>
+        <v>896</v>
       </c>
       <c r="F6" t="n">
-        <v>319</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1284</v>
+        <v>2385</v>
       </c>
       <c r="D7" t="n">
-        <v>1023</v>
+        <v>617</v>
       </c>
       <c r="E7" t="n">
-        <v>888</v>
+        <v>485</v>
       </c>
       <c r="F7" t="n">
-        <v>901</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2576</v>
+        <v>3148</v>
       </c>
       <c r="D8" t="n">
-        <v>355</v>
+        <v>232</v>
       </c>
       <c r="E8" t="n">
-        <v>902</v>
+        <v>489</v>
       </c>
       <c r="F8" t="n">
-        <v>263</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2474</v>
+        <v>2669</v>
       </c>
       <c r="D9" t="n">
-        <v>574</v>
+        <v>470</v>
       </c>
       <c r="E9" t="n">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="F9" t="n">
-        <v>541</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2830</v>
+        <v>2713</v>
       </c>
       <c r="D10" t="n">
-        <v>360</v>
+        <v>241</v>
       </c>
       <c r="E10" t="n">
-        <v>571</v>
+        <v>909</v>
       </c>
       <c r="F10" t="n">
-        <v>335</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1304</v>
+        <v>2372</v>
       </c>
       <c r="D11" t="n">
-        <v>1058</v>
+        <v>654</v>
       </c>
       <c r="E11" t="n">
-        <v>897</v>
+        <v>483</v>
       </c>
       <c r="F11" t="n">
-        <v>837</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2609</v>
+        <v>3167</v>
       </c>
       <c r="D12" t="n">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="E12" t="n">
-        <v>903</v>
+        <v>472</v>
       </c>
       <c r="F12" t="n">
-        <v>266</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2464</v>
+        <v>2626</v>
       </c>
       <c r="D13" t="n">
-        <v>547</v>
+        <v>441</v>
       </c>
       <c r="E13" t="n">
         <v>536</v>
       </c>
       <c r="F13" t="n">
-        <v>549</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2755</v>
+        <v>2747</v>
       </c>
       <c r="D14" t="n">
-        <v>375</v>
+        <v>256</v>
       </c>
       <c r="E14" t="n">
-        <v>626</v>
+        <v>867</v>
       </c>
       <c r="F14" t="n">
-        <v>340</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1262</v>
+        <v>2410</v>
       </c>
       <c r="D15" t="n">
-        <v>1071</v>
+        <v>588</v>
       </c>
       <c r="E15" t="n">
-        <v>836</v>
+        <v>486</v>
       </c>
       <c r="F15" t="n">
-        <v>927</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2643</v>
+        <v>3144</v>
       </c>
       <c r="D16" t="n">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="E16" t="n">
-        <v>872</v>
+        <v>491</v>
       </c>
       <c r="F16" t="n">
-        <v>269</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2450</v>
+        <v>2607</v>
       </c>
       <c r="D17" t="n">
-        <v>595</v>
+        <v>465</v>
       </c>
       <c r="E17" t="n">
-        <v>503</v>
+        <v>549</v>
       </c>
       <c r="F17" t="n">
-        <v>548</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2765</v>
+        <v>2742</v>
       </c>
       <c r="D18" t="n">
-        <v>359</v>
+        <v>250</v>
       </c>
       <c r="E18" t="n">
-        <v>621</v>
+        <v>857</v>
       </c>
       <c r="F18" t="n">
-        <v>351</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1619447359.978416</v>
+        <v>1619752415.269439</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ibmq_rome</t>
+          <t>ibmq_athens</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1302</v>
+        <v>2362</v>
       </c>
       <c r="D19" t="n">
-        <v>1052</v>
+        <v>655</v>
       </c>
       <c r="E19" t="n">
+        <v>439</v>
+      </c>
+      <c r="F19" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3198</v>
+      </c>
+      <c r="D20" t="n">
+        <v>229</v>
+      </c>
+      <c r="E20" t="n">
+        <v>442</v>
+      </c>
+      <c r="F20" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2677</v>
+      </c>
+      <c r="D21" t="n">
+        <v>483</v>
+      </c>
+      <c r="E21" t="n">
+        <v>517</v>
+      </c>
+      <c r="F21" t="n">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2721</v>
+      </c>
+      <c r="D22" t="n">
+        <v>238</v>
+      </c>
+      <c r="E22" t="n">
+        <v>906</v>
+      </c>
+      <c r="F22" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2397</v>
+      </c>
+      <c r="D23" t="n">
+        <v>632</v>
+      </c>
+      <c r="E23" t="n">
+        <v>458</v>
+      </c>
+      <c r="F23" t="n">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3126</v>
+      </c>
+      <c r="D24" t="n">
+        <v>249</v>
+      </c>
+      <c r="E24" t="n">
+        <v>516</v>
+      </c>
+      <c r="F24" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2749</v>
+      </c>
+      <c r="D25" t="n">
+        <v>426</v>
+      </c>
+      <c r="E25" t="n">
+        <v>522</v>
+      </c>
+      <c r="F25" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2726</v>
+      </c>
+      <c r="D26" t="n">
+        <v>257</v>
+      </c>
+      <c r="E26" t="n">
         <v>880</v>
       </c>
-      <c r="F19" t="n">
-        <v>862</v>
+      <c r="F26" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2398</v>
+      </c>
+      <c r="D27" t="n">
+        <v>662</v>
+      </c>
+      <c r="E27" t="n">
+        <v>446</v>
+      </c>
+      <c r="F27" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3154</v>
+      </c>
+      <c r="D28" t="n">
+        <v>244</v>
+      </c>
+      <c r="E28" t="n">
+        <v>496</v>
+      </c>
+      <c r="F28" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2610</v>
+      </c>
+      <c r="D29" t="n">
+        <v>453</v>
+      </c>
+      <c r="E29" t="n">
+        <v>581</v>
+      </c>
+      <c r="F29" t="n">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2762</v>
+      </c>
+      <c r="D30" t="n">
+        <v>241</v>
+      </c>
+      <c r="E30" t="n">
+        <v>853</v>
+      </c>
+      <c r="F30" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2374</v>
+      </c>
+      <c r="D31" t="n">
+        <v>617</v>
+      </c>
+      <c r="E31" t="n">
+        <v>453</v>
+      </c>
+      <c r="F31" t="n">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3170</v>
+      </c>
+      <c r="D32" t="n">
+        <v>235</v>
+      </c>
+      <c r="E32" t="n">
+        <v>503</v>
+      </c>
+      <c r="F32" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2637</v>
+      </c>
+      <c r="D33" t="n">
+        <v>456</v>
+      </c>
+      <c r="E33" t="n">
+        <v>571</v>
+      </c>
+      <c r="F33" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2761</v>
+      </c>
+      <c r="D34" t="n">
+        <v>252</v>
+      </c>
+      <c r="E34" t="n">
+        <v>876</v>
+      </c>
+      <c r="F34" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2368</v>
+      </c>
+      <c r="D35" t="n">
+        <v>643</v>
+      </c>
+      <c r="E35" t="n">
+        <v>484</v>
+      </c>
+      <c r="F35" t="n">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3148</v>
+      </c>
+      <c r="D36" t="n">
+        <v>237</v>
+      </c>
+      <c r="E36" t="n">
+        <v>492</v>
+      </c>
+      <c r="F36" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2671</v>
+      </c>
+      <c r="D37" t="n">
+        <v>458</v>
+      </c>
+      <c r="E37" t="n">
+        <v>540</v>
+      </c>
+      <c r="F37" t="n">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2739</v>
+      </c>
+      <c r="D38" t="n">
+        <v>230</v>
+      </c>
+      <c r="E38" t="n">
+        <v>902</v>
+      </c>
+      <c r="F38" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2405</v>
+      </c>
+      <c r="D39" t="n">
+        <v>649</v>
+      </c>
+      <c r="E39" t="n">
+        <v>460</v>
+      </c>
+      <c r="F39" t="n">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3164</v>
+      </c>
+      <c r="D40" t="n">
+        <v>248</v>
+      </c>
+      <c r="E40" t="n">
+        <v>479</v>
+      </c>
+      <c r="F40" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2657</v>
+      </c>
+      <c r="D41" t="n">
+        <v>457</v>
+      </c>
+      <c r="E41" t="n">
+        <v>543</v>
+      </c>
+      <c r="F41" t="n">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2741</v>
+      </c>
+      <c r="D42" t="n">
+        <v>235</v>
+      </c>
+      <c r="E42" t="n">
+        <v>890</v>
+      </c>
+      <c r="F42" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2377</v>
+      </c>
+      <c r="D43" t="n">
+        <v>635</v>
+      </c>
+      <c r="E43" t="n">
+        <v>464</v>
+      </c>
+      <c r="F43" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>3132</v>
+      </c>
+      <c r="D44" t="n">
+        <v>248</v>
+      </c>
+      <c r="E44" t="n">
+        <v>513</v>
+      </c>
+      <c r="F44" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2643</v>
+      </c>
+      <c r="D45" t="n">
+        <v>463</v>
+      </c>
+      <c r="E45" t="n">
+        <v>523</v>
+      </c>
+      <c r="F45" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2746</v>
+      </c>
+      <c r="D46" t="n">
+        <v>240</v>
+      </c>
+      <c r="E46" t="n">
+        <v>883</v>
+      </c>
+      <c r="F46" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D47" t="n">
+        <v>665</v>
+      </c>
+      <c r="E47" t="n">
+        <v>428</v>
+      </c>
+      <c r="F47" t="n">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3125</v>
+      </c>
+      <c r="D48" t="n">
+        <v>271</v>
+      </c>
+      <c r="E48" t="n">
+        <v>498</v>
+      </c>
+      <c r="F48" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2667</v>
+      </c>
+      <c r="D49" t="n">
+        <v>482</v>
+      </c>
+      <c r="E49" t="n">
+        <v>496</v>
+      </c>
+      <c r="F49" t="n">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2774</v>
+      </c>
+      <c r="D50" t="n">
+        <v>228</v>
+      </c>
+      <c r="E50" t="n">
+        <v>855</v>
+      </c>
+      <c r="F50" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2418</v>
+      </c>
+      <c r="D51" t="n">
+        <v>649</v>
+      </c>
+      <c r="E51" t="n">
+        <v>419</v>
+      </c>
+      <c r="F51" t="n">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D52" t="n">
+        <v>220</v>
+      </c>
+      <c r="E52" t="n">
+        <v>466</v>
+      </c>
+      <c r="F52" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2686</v>
+      </c>
+      <c r="D53" t="n">
+        <v>466</v>
+      </c>
+      <c r="E53" t="n">
+        <v>515</v>
+      </c>
+      <c r="F53" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2768</v>
+      </c>
+      <c r="D54" t="n">
+        <v>236</v>
+      </c>
+      <c r="E54" t="n">
+        <v>875</v>
+      </c>
+      <c r="F54" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2383</v>
+      </c>
+      <c r="D55" t="n">
+        <v>611</v>
+      </c>
+      <c r="E55" t="n">
+        <v>461</v>
+      </c>
+      <c r="F55" t="n">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>3127</v>
+      </c>
+      <c r="D56" t="n">
+        <v>231</v>
+      </c>
+      <c r="E56" t="n">
+        <v>522</v>
+      </c>
+      <c r="F56" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2654</v>
+      </c>
+      <c r="D57" t="n">
+        <v>454</v>
+      </c>
+      <c r="E57" t="n">
+        <v>539</v>
+      </c>
+      <c r="F57" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2776</v>
+      </c>
+      <c r="D58" t="n">
+        <v>248</v>
+      </c>
+      <c r="E58" t="n">
+        <v>821</v>
+      </c>
+      <c r="F58" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2445</v>
+      </c>
+      <c r="D59" t="n">
+        <v>656</v>
+      </c>
+      <c r="E59" t="n">
+        <v>432</v>
+      </c>
+      <c r="F59" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>3184</v>
+      </c>
+      <c r="D60" t="n">
+        <v>226</v>
+      </c>
+      <c r="E60" t="n">
+        <v>474</v>
+      </c>
+      <c r="F60" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2709</v>
+      </c>
+      <c r="D61" t="n">
+        <v>443</v>
+      </c>
+      <c r="E61" t="n">
+        <v>505</v>
+      </c>
+      <c r="F61" t="n">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>2756</v>
+      </c>
+      <c r="D62" t="n">
+        <v>237</v>
+      </c>
+      <c r="E62" t="n">
+        <v>859</v>
+      </c>
+      <c r="F62" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>2371</v>
+      </c>
+      <c r="D63" t="n">
+        <v>631</v>
+      </c>
+      <c r="E63" t="n">
+        <v>472</v>
+      </c>
+      <c r="F63" t="n">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>3161</v>
+      </c>
+      <c r="D64" t="n">
+        <v>221</v>
+      </c>
+      <c r="E64" t="n">
+        <v>493</v>
+      </c>
+      <c r="F64" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2665</v>
+      </c>
+      <c r="D65" t="n">
+        <v>463</v>
+      </c>
+      <c r="E65" t="n">
+        <v>529</v>
+      </c>
+      <c r="F65" t="n">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2780</v>
+      </c>
+      <c r="D66" t="n">
+        <v>224</v>
+      </c>
+      <c r="E66" t="n">
+        <v>865</v>
+      </c>
+      <c r="F66" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2386</v>
+      </c>
+      <c r="D67" t="n">
+        <v>632</v>
+      </c>
+      <c r="E67" t="n">
+        <v>461</v>
+      </c>
+      <c r="F67" t="n">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>3151</v>
+      </c>
+      <c r="D68" t="n">
+        <v>221</v>
+      </c>
+      <c r="E68" t="n">
+        <v>496</v>
+      </c>
+      <c r="F68" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2661</v>
+      </c>
+      <c r="D69" t="n">
+        <v>453</v>
+      </c>
+      <c r="E69" t="n">
+        <v>543</v>
+      </c>
+      <c r="F69" t="n">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>2757</v>
+      </c>
+      <c r="D70" t="n">
+        <v>226</v>
+      </c>
+      <c r="E70" t="n">
+        <v>849</v>
+      </c>
+      <c r="F70" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2429</v>
+      </c>
+      <c r="D71" t="n">
+        <v>644</v>
+      </c>
+      <c r="E71" t="n">
+        <v>430</v>
+      </c>
+      <c r="F71" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>3139</v>
+      </c>
+      <c r="D72" t="n">
+        <v>252</v>
+      </c>
+      <c r="E72" t="n">
+        <v>486</v>
+      </c>
+      <c r="F72" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1619752415.269439</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ibmq_athens</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2620</v>
+      </c>
+      <c r="D73" t="n">
+        <v>472</v>
+      </c>
+      <c r="E73" t="n">
+        <v>561</v>
+      </c>
+      <c r="F73" t="n">
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/distributed/distributed_shots_far.xlsx
+++ b/distributed/distributed_shots_far.xlsx
@@ -455,7 +455,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -463,21 +463,21 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2740</v>
+        <v>3573</v>
       </c>
       <c r="D2" t="n">
-        <v>238</v>
+        <v>138</v>
       </c>
       <c r="E2" t="n">
-        <v>881</v>
+        <v>248</v>
       </c>
       <c r="F2" t="n">
-        <v>237</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -485,21 +485,21 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2369</v>
+        <v>3638</v>
       </c>
       <c r="D3" t="n">
-        <v>672</v>
+        <v>180</v>
       </c>
       <c r="E3" t="n">
-        <v>446</v>
+        <v>139</v>
       </c>
       <c r="F3" t="n">
-        <v>609</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -507,21 +507,21 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3149</v>
+        <v>3634</v>
       </c>
       <c r="D4" t="n">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="E4" t="n">
-        <v>500</v>
+        <v>245</v>
       </c>
       <c r="F4" t="n">
-        <v>221</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -529,21 +529,21 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2649</v>
+        <v>3611</v>
       </c>
       <c r="D5" t="n">
-        <v>432</v>
+        <v>125</v>
       </c>
       <c r="E5" t="n">
-        <v>556</v>
+        <v>234</v>
       </c>
       <c r="F5" t="n">
-        <v>459</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -551,21 +551,21 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2709</v>
+        <v>3561</v>
       </c>
       <c r="D6" t="n">
-        <v>254</v>
+        <v>146</v>
       </c>
       <c r="E6" t="n">
-        <v>896</v>
+        <v>278</v>
       </c>
       <c r="F6" t="n">
-        <v>237</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -573,21 +573,21 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2385</v>
+        <v>3617</v>
       </c>
       <c r="D7" t="n">
-        <v>617</v>
+        <v>166</v>
       </c>
       <c r="E7" t="n">
-        <v>485</v>
+        <v>137</v>
       </c>
       <c r="F7" t="n">
-        <v>609</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -595,21 +595,21 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3148</v>
+        <v>3623</v>
       </c>
       <c r="D8" t="n">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="E8" t="n">
-        <v>489</v>
+        <v>236</v>
       </c>
       <c r="F8" t="n">
-        <v>227</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -617,21 +617,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2669</v>
+        <v>3570</v>
       </c>
       <c r="D9" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="E9" t="n">
-        <v>514</v>
+        <v>236</v>
       </c>
       <c r="F9" t="n">
-        <v>443</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -639,21 +639,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2713</v>
+        <v>3583</v>
       </c>
       <c r="D10" t="n">
-        <v>241</v>
+        <v>137</v>
       </c>
       <c r="E10" t="n">
-        <v>909</v>
+        <v>259</v>
       </c>
       <c r="F10" t="n">
-        <v>233</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -661,21 +661,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2372</v>
+        <v>3630</v>
       </c>
       <c r="D11" t="n">
-        <v>654</v>
+        <v>194</v>
       </c>
       <c r="E11" t="n">
-        <v>483</v>
+        <v>123</v>
       </c>
       <c r="F11" t="n">
-        <v>587</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -683,21 +683,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3167</v>
+        <v>3589</v>
       </c>
       <c r="D12" t="n">
+        <v>148</v>
+      </c>
+      <c r="E12" t="n">
         <v>253</v>
       </c>
-      <c r="E12" t="n">
-        <v>472</v>
-      </c>
       <c r="F12" t="n">
-        <v>204</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -705,21 +705,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2626</v>
+        <v>3587</v>
       </c>
       <c r="D13" t="n">
-        <v>441</v>
+        <v>135</v>
       </c>
       <c r="E13" t="n">
-        <v>536</v>
+        <v>237</v>
       </c>
       <c r="F13" t="n">
-        <v>493</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -727,21 +727,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2747</v>
+        <v>3650</v>
       </c>
       <c r="D14" t="n">
-        <v>256</v>
+        <v>98</v>
       </c>
       <c r="E14" t="n">
-        <v>867</v>
+        <v>253</v>
       </c>
       <c r="F14" t="n">
-        <v>226</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -749,21 +749,21 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2410</v>
+        <v>3596</v>
       </c>
       <c r="D15" t="n">
-        <v>588</v>
+        <v>165</v>
       </c>
       <c r="E15" t="n">
-        <v>486</v>
+        <v>155</v>
       </c>
       <c r="F15" t="n">
-        <v>612</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -771,21 +771,21 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3144</v>
+        <v>3649</v>
       </c>
       <c r="D16" t="n">
-        <v>247</v>
+        <v>119</v>
       </c>
       <c r="E16" t="n">
-        <v>491</v>
+        <v>223</v>
       </c>
       <c r="F16" t="n">
-        <v>214</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -793,21 +793,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2607</v>
+        <v>3624</v>
       </c>
       <c r="D17" t="n">
-        <v>465</v>
+        <v>144</v>
       </c>
       <c r="E17" t="n">
-        <v>549</v>
+        <v>210</v>
       </c>
       <c r="F17" t="n">
-        <v>475</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -815,21 +815,21 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2742</v>
+        <v>3600</v>
       </c>
       <c r="D18" t="n">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="E18" t="n">
-        <v>857</v>
+        <v>245</v>
       </c>
       <c r="F18" t="n">
-        <v>247</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -837,21 +837,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2362</v>
+        <v>3645</v>
       </c>
       <c r="D19" t="n">
-        <v>655</v>
+        <v>180</v>
       </c>
       <c r="E19" t="n">
-        <v>439</v>
+        <v>128</v>
       </c>
       <c r="F19" t="n">
-        <v>640</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -859,21 +859,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3198</v>
+        <v>3627</v>
       </c>
       <c r="D20" t="n">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="E20" t="n">
-        <v>442</v>
+        <v>215</v>
       </c>
       <c r="F20" t="n">
-        <v>227</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -881,21 +881,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2677</v>
+        <v>3613</v>
       </c>
       <c r="D21" t="n">
-        <v>483</v>
+        <v>134</v>
       </c>
       <c r="E21" t="n">
-        <v>517</v>
+        <v>246</v>
       </c>
       <c r="F21" t="n">
-        <v>419</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -903,21 +903,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2721</v>
+        <v>3602</v>
       </c>
       <c r="D22" t="n">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="E22" t="n">
-        <v>906</v>
+        <v>249</v>
       </c>
       <c r="F22" t="n">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -925,21 +925,21 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2397</v>
+        <v>3613</v>
       </c>
       <c r="D23" t="n">
-        <v>632</v>
+        <v>193</v>
       </c>
       <c r="E23" t="n">
-        <v>458</v>
+        <v>141</v>
       </c>
       <c r="F23" t="n">
-        <v>609</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -947,21 +947,21 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3126</v>
+        <v>3622</v>
       </c>
       <c r="D24" t="n">
-        <v>249</v>
+        <v>132</v>
       </c>
       <c r="E24" t="n">
-        <v>516</v>
+        <v>245</v>
       </c>
       <c r="F24" t="n">
-        <v>205</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -969,21 +969,21 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2749</v>
+        <v>3590</v>
       </c>
       <c r="D25" t="n">
-        <v>426</v>
+        <v>161</v>
       </c>
       <c r="E25" t="n">
-        <v>522</v>
+        <v>235</v>
       </c>
       <c r="F25" t="n">
-        <v>399</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -991,21 +991,21 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2726</v>
+        <v>3613</v>
       </c>
       <c r="D26" t="n">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="E26" t="n">
-        <v>880</v>
+        <v>254</v>
       </c>
       <c r="F26" t="n">
-        <v>233</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1013,21 +1013,21 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2398</v>
+        <v>3643</v>
       </c>
       <c r="D27" t="n">
-        <v>662</v>
+        <v>155</v>
       </c>
       <c r="E27" t="n">
-        <v>446</v>
+        <v>140</v>
       </c>
       <c r="F27" t="n">
-        <v>590</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3154</v>
+        <v>3649</v>
       </c>
       <c r="D28" t="n">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="E28" t="n">
-        <v>496</v>
+        <v>226</v>
       </c>
       <c r="F28" t="n">
-        <v>202</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1057,21 +1057,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2610</v>
+        <v>3530</v>
       </c>
       <c r="D29" t="n">
-        <v>453</v>
+        <v>166</v>
       </c>
       <c r="E29" t="n">
-        <v>581</v>
+        <v>255</v>
       </c>
       <c r="F29" t="n">
-        <v>452</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1079,21 +1079,21 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2762</v>
+        <v>3590</v>
       </c>
       <c r="D30" t="n">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="E30" t="n">
-        <v>853</v>
+        <v>279</v>
       </c>
       <c r="F30" t="n">
-        <v>240</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1101,21 +1101,21 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2374</v>
+        <v>3612</v>
       </c>
       <c r="D31" t="n">
-        <v>617</v>
+        <v>174</v>
       </c>
       <c r="E31" t="n">
-        <v>453</v>
+        <v>137</v>
       </c>
       <c r="F31" t="n">
-        <v>652</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1123,21 +1123,21 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3170</v>
+        <v>3623</v>
       </c>
       <c r="D32" t="n">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="E32" t="n">
-        <v>503</v>
+        <v>219</v>
       </c>
       <c r="F32" t="n">
-        <v>188</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1145,21 +1145,21 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2637</v>
+        <v>3587</v>
       </c>
       <c r="D33" t="n">
-        <v>456</v>
+        <v>158</v>
       </c>
       <c r="E33" t="n">
-        <v>571</v>
+        <v>237</v>
       </c>
       <c r="F33" t="n">
-        <v>432</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1167,21 +1167,21 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2761</v>
+        <v>3579</v>
       </c>
       <c r="D34" t="n">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="E34" t="n">
-        <v>876</v>
+        <v>257</v>
       </c>
       <c r="F34" t="n">
-        <v>207</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1189,21 +1189,21 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2368</v>
+        <v>3607</v>
       </c>
       <c r="D35" t="n">
-        <v>643</v>
+        <v>178</v>
       </c>
       <c r="E35" t="n">
-        <v>484</v>
+        <v>143</v>
       </c>
       <c r="F35" t="n">
-        <v>601</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1211,21 +1211,21 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3148</v>
+        <v>3626</v>
       </c>
       <c r="D36" t="n">
-        <v>237</v>
+        <v>134</v>
       </c>
       <c r="E36" t="n">
-        <v>492</v>
+        <v>218</v>
       </c>
       <c r="F36" t="n">
-        <v>219</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1233,21 +1233,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2671</v>
+        <v>3616</v>
       </c>
       <c r="D37" t="n">
-        <v>458</v>
+        <v>153</v>
       </c>
       <c r="E37" t="n">
-        <v>540</v>
+        <v>212</v>
       </c>
       <c r="F37" t="n">
-        <v>427</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1255,21 +1255,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2739</v>
+        <v>3604</v>
       </c>
       <c r="D38" t="n">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="E38" t="n">
-        <v>902</v>
+        <v>264</v>
       </c>
       <c r="F38" t="n">
-        <v>225</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1277,21 +1277,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2405</v>
+        <v>3588</v>
       </c>
       <c r="D39" t="n">
-        <v>649</v>
+        <v>189</v>
       </c>
       <c r="E39" t="n">
-        <v>460</v>
+        <v>145</v>
       </c>
       <c r="F39" t="n">
-        <v>582</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1299,21 +1299,21 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3164</v>
+        <v>3600</v>
       </c>
       <c r="D40" t="n">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="E40" t="n">
-        <v>479</v>
+        <v>238</v>
       </c>
       <c r="F40" t="n">
-        <v>205</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1321,21 +1321,21 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2657</v>
+        <v>3575</v>
       </c>
       <c r="D41" t="n">
-        <v>457</v>
+        <v>161</v>
       </c>
       <c r="E41" t="n">
-        <v>543</v>
+        <v>249</v>
       </c>
       <c r="F41" t="n">
-        <v>439</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1343,21 +1343,21 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2741</v>
+        <v>3615</v>
       </c>
       <c r="D42" t="n">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="E42" t="n">
-        <v>890</v>
+        <v>270</v>
       </c>
       <c r="F42" t="n">
-        <v>230</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1365,21 +1365,21 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2377</v>
+        <v>3599</v>
       </c>
       <c r="D43" t="n">
-        <v>635</v>
+        <v>201</v>
       </c>
       <c r="E43" t="n">
-        <v>464</v>
+        <v>145</v>
       </c>
       <c r="F43" t="n">
-        <v>620</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1387,21 +1387,21 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3132</v>
+        <v>3652</v>
       </c>
       <c r="D44" t="n">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="E44" t="n">
-        <v>513</v>
+        <v>217</v>
       </c>
       <c r="F44" t="n">
-        <v>203</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1409,21 +1409,21 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2643</v>
+        <v>3596</v>
       </c>
       <c r="D45" t="n">
-        <v>463</v>
+        <v>125</v>
       </c>
       <c r="E45" t="n">
-        <v>523</v>
+        <v>249</v>
       </c>
       <c r="F45" t="n">
-        <v>467</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1431,21 +1431,21 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2746</v>
+        <v>3601</v>
       </c>
       <c r="D46" t="n">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="E46" t="n">
-        <v>883</v>
+        <v>252</v>
       </c>
       <c r="F46" t="n">
-        <v>227</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1453,21 +1453,21 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2381</v>
+        <v>3629</v>
       </c>
       <c r="D47" t="n">
-        <v>665</v>
+        <v>185</v>
       </c>
       <c r="E47" t="n">
-        <v>428</v>
+        <v>144</v>
       </c>
       <c r="F47" t="n">
-        <v>622</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1475,21 +1475,21 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3125</v>
+        <v>3646</v>
       </c>
       <c r="D48" t="n">
-        <v>271</v>
+        <v>127</v>
       </c>
       <c r="E48" t="n">
-        <v>498</v>
+        <v>224</v>
       </c>
       <c r="F48" t="n">
-        <v>202</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1497,21 +1497,21 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2667</v>
+        <v>3618</v>
       </c>
       <c r="D49" t="n">
-        <v>482</v>
+        <v>154</v>
       </c>
       <c r="E49" t="n">
-        <v>496</v>
+        <v>218</v>
       </c>
       <c r="F49" t="n">
-        <v>451</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1519,21 +1519,21 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2774</v>
+        <v>3608</v>
       </c>
       <c r="D50" t="n">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="E50" t="n">
-        <v>855</v>
+        <v>247</v>
       </c>
       <c r="F50" t="n">
-        <v>239</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1541,21 +1541,21 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2418</v>
+        <v>3624</v>
       </c>
       <c r="D51" t="n">
-        <v>649</v>
+        <v>185</v>
       </c>
       <c r="E51" t="n">
-        <v>419</v>
+        <v>141</v>
       </c>
       <c r="F51" t="n">
-        <v>610</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1563,21 +1563,21 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3201</v>
+        <v>3593</v>
       </c>
       <c r="D52" t="n">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="E52" t="n">
-        <v>466</v>
+        <v>251</v>
       </c>
       <c r="F52" t="n">
-        <v>209</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1585,21 +1585,21 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2686</v>
+        <v>3581</v>
       </c>
       <c r="D53" t="n">
-        <v>466</v>
+        <v>154</v>
       </c>
       <c r="E53" t="n">
-        <v>515</v>
+        <v>256</v>
       </c>
       <c r="F53" t="n">
-        <v>429</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1607,21 +1607,21 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2768</v>
+        <v>3585</v>
       </c>
       <c r="D54" t="n">
-        <v>236</v>
+        <v>135</v>
       </c>
       <c r="E54" t="n">
-        <v>875</v>
+        <v>256</v>
       </c>
       <c r="F54" t="n">
-        <v>217</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1629,21 +1629,21 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2383</v>
+        <v>3616</v>
       </c>
       <c r="D55" t="n">
-        <v>611</v>
+        <v>175</v>
       </c>
       <c r="E55" t="n">
-        <v>461</v>
+        <v>134</v>
       </c>
       <c r="F55" t="n">
-        <v>641</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1651,21 +1651,21 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3127</v>
+        <v>3588</v>
       </c>
       <c r="D56" t="n">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="E56" t="n">
-        <v>522</v>
+        <v>261</v>
       </c>
       <c r="F56" t="n">
-        <v>216</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1673,21 +1673,21 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2654</v>
+        <v>3601</v>
       </c>
       <c r="D57" t="n">
-        <v>454</v>
+        <v>156</v>
       </c>
       <c r="E57" t="n">
-        <v>539</v>
+        <v>212</v>
       </c>
       <c r="F57" t="n">
-        <v>449</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1695,21 +1695,21 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2776</v>
+        <v>3576</v>
       </c>
       <c r="D58" t="n">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="E58" t="n">
-        <v>821</v>
+        <v>253</v>
       </c>
       <c r="F58" t="n">
-        <v>251</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1717,21 +1717,21 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2445</v>
+        <v>3602</v>
       </c>
       <c r="D59" t="n">
-        <v>656</v>
+        <v>208</v>
       </c>
       <c r="E59" t="n">
-        <v>432</v>
+        <v>125</v>
       </c>
       <c r="F59" t="n">
-        <v>563</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1739,21 +1739,21 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3184</v>
+        <v>3632</v>
       </c>
       <c r="D60" t="n">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="E60" t="n">
-        <v>474</v>
+        <v>231</v>
       </c>
       <c r="F60" t="n">
-        <v>212</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1761,21 +1761,21 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2709</v>
+        <v>3640</v>
       </c>
       <c r="D61" t="n">
-        <v>443</v>
+        <v>143</v>
       </c>
       <c r="E61" t="n">
-        <v>505</v>
+        <v>195</v>
       </c>
       <c r="F61" t="n">
-        <v>439</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1783,21 +1783,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2756</v>
+        <v>3628</v>
       </c>
       <c r="D62" t="n">
-        <v>237</v>
+        <v>128</v>
       </c>
       <c r="E62" t="n">
-        <v>859</v>
+        <v>231</v>
       </c>
       <c r="F62" t="n">
-        <v>244</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1805,21 +1805,21 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2371</v>
+        <v>3614</v>
       </c>
       <c r="D63" t="n">
-        <v>631</v>
+        <v>192</v>
       </c>
       <c r="E63" t="n">
-        <v>472</v>
+        <v>139</v>
       </c>
       <c r="F63" t="n">
-        <v>622</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1827,21 +1827,21 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3161</v>
+        <v>3647</v>
       </c>
       <c r="D64" t="n">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="E64" t="n">
-        <v>493</v>
+        <v>231</v>
       </c>
       <c r="F64" t="n">
-        <v>221</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1849,21 +1849,21 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2665</v>
+        <v>3585</v>
       </c>
       <c r="D65" t="n">
-        <v>463</v>
+        <v>146</v>
       </c>
       <c r="E65" t="n">
-        <v>529</v>
+        <v>236</v>
       </c>
       <c r="F65" t="n">
-        <v>439</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1871,21 +1871,21 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2780</v>
+        <v>3590</v>
       </c>
       <c r="D66" t="n">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="E66" t="n">
-        <v>865</v>
+        <v>250</v>
       </c>
       <c r="F66" t="n">
-        <v>227</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1893,21 +1893,21 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2386</v>
+        <v>3656</v>
       </c>
       <c r="D67" t="n">
-        <v>632</v>
+        <v>166</v>
       </c>
       <c r="E67" t="n">
-        <v>461</v>
+        <v>141</v>
       </c>
       <c r="F67" t="n">
-        <v>617</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1915,21 +1915,21 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3151</v>
+        <v>3645</v>
       </c>
       <c r="D68" t="n">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="E68" t="n">
-        <v>496</v>
+        <v>239</v>
       </c>
       <c r="F68" t="n">
-        <v>228</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1937,21 +1937,21 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2661</v>
+        <v>3596</v>
       </c>
       <c r="D69" t="n">
-        <v>453</v>
+        <v>162</v>
       </c>
       <c r="E69" t="n">
-        <v>543</v>
+        <v>228</v>
       </c>
       <c r="F69" t="n">
-        <v>439</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1959,21 +1959,21 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2757</v>
+        <v>3578</v>
       </c>
       <c r="D70" t="n">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="E70" t="n">
-        <v>849</v>
+        <v>254</v>
       </c>
       <c r="F70" t="n">
-        <v>264</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1981,21 +1981,21 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2429</v>
+        <v>3641</v>
       </c>
       <c r="D71" t="n">
-        <v>644</v>
+        <v>187</v>
       </c>
       <c r="E71" t="n">
-        <v>430</v>
+        <v>149</v>
       </c>
       <c r="F71" t="n">
-        <v>593</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2003,21 +2003,21 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3139</v>
+        <v>3633</v>
       </c>
       <c r="D72" t="n">
-        <v>252</v>
+        <v>117</v>
       </c>
       <c r="E72" t="n">
-        <v>486</v>
+        <v>226</v>
       </c>
       <c r="F72" t="n">
-        <v>219</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1619752415.269439</v>
+        <v>1621310975.697195</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2620</v>
+        <v>3601</v>
       </c>
       <c r="D73" t="n">
-        <v>472</v>
+        <v>142</v>
       </c>
       <c r="E73" t="n">
-        <v>561</v>
+        <v>228</v>
       </c>
       <c r="F73" t="n">
-        <v>443</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
